--- a/data/extracted_data/raw/Svensson_etal_2003_Fig2.xlsx
+++ b/data/extracted_data/raw/Svensson_etal_2003_Fig2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CD34E22-2337-A444-892C-7F0BE2EE674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F6F49D-9CA1-F84C-A77C-E73AB557686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="2640" windowWidth="27640" windowHeight="16940" xr2:uid="{75E67831-BA3D-6342-9562-23E9A44E786D}"/>
   </bookViews>
@@ -900,7 +900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807380D4-948A-F643-B605-B8B5BE8B4C18}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -923,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>33.124864059964104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -934,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>48.771102076327097</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -945,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4.5999999999999996</v>
+        <v>60.443373655239299</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -956,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.4</v>
+        <v>35.653934313774599</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -967,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>20.7117401997691</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -978,139 +980,139 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1.1000000000000001</v>
+        <v>10.135689069584499</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>42.933293178738097</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>46.319664039886803</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>38.374408137997897</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>31.362746574311</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>2.2999999999999998</v>
+        <v>20.404557546554202</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>32</v>
       </c>
       <c r="C13">
-        <v>2.2000000000000002</v>
+        <v>20.5571450082818</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3.3</v>
+        <v>48.757047968010099</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>54.288343455637502</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>36.535327678227802</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>2.4</v>
+        <v>27.685254898023999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.7</v>
+        <v>33.2787900081982</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>32</v>
       </c>
       <c r="C19">
-        <v>1.6</v>
+        <v>31.899479663370599</v>
       </c>
     </row>
   </sheetData>
